--- a/biology/Botanique/Jardin_Raymond-VI/Jardin_Raymond-VI.xlsx
+++ b/biology/Botanique/Jardin_Raymond-VI/Jardin_Raymond-VI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Raymond-VI est un jardin public situé à Toulouse dans le quartier Saint-Cyprien, le long de l'hôpital de la Grave[A 1]. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé en 1998, à la suite de la destruction des anciens abattoirs et de la transformation de la halle Urbain Vitry en musée d'art moderne, Les Abattoirs[A 1]. Le jardin doit son nom à Raymond VI, comte de Toulouse, qui a franchi la Garonne au niveau de l'emplacement du jardin en 1217 à son retour d'exil[A 1].
 </t>
@@ -543,7 +557,9 @@
           <t>Description et composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a une superficie de deux hectares et demi et possède des magnolias, érables, charmes, tilleuls, palmiers, glycines, lierres et un olivier[A 1]. Il accueille aussi un belvédère ainsi qu'une œuvre de Daniel Coulet, l'Arche[A 1].
 Une partie du jardin est consacrée aux plantes sauvages et à leur utilisation, telles que le mélilot, l'hysope, la catananche, la tamier, la carline, la cardère ou le pastel[A 2].
